--- a/testdata/test_data.xlsx
+++ b/testdata/test_data.xlsx
@@ -65,15 +65,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -87,30 +79,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -131,7 +101,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -148,14 +125,15 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,6 +141,13 @@
       <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -178,7 +163,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -187,6 +172,21 @@
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -200,13 +200,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,169 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +391,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,26 +422,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -441,8 +432,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,17 +453,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +476,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -499,10 +499,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -511,16 +511,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
@@ -532,82 +532,88 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="20" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="10" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="20" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="20" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="23" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="26" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
@@ -616,28 +622,22 @@
     <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2283,16 +2283,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="9.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="41.25"/>
+    <col customWidth="1" max="2" min="2" style="1" width="43.625"/>
     <col customWidth="1" max="3" min="3" style="1" width="48.25"/>
     <col customWidth="1" max="4" min="4" style="1" width="9.75"/>
     <col customWidth="1" max="5" min="5" style="1" width="61.375"/>
@@ -2364,6 +2364,510 @@
           <t>select username from test.auth_user where username=%s;</t>
         </is>
       </c>
+    </row>
+    <row customHeight="1" ht="81" r="3" s="1">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 20*",
+"email": "*email new*",
+"password": "334498sun",
+"password_confirm": "334498sun"
+}</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 201, 'msg': '*params username*'}</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>注册成功_未注册的20位账号_邮箱</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>select username from test.auth_user where username=%s;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="4" s="1">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 6*",
+"email": "*email new*",
+"password": "334498",
+"password_confirm": "334498"
+}</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 201, 'msg': '*params username*'}</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>注册成功_未注册的20位账号_邮箱_6位密码</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>select username from test.auth_user where username=%s;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="5" s="1">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 20*",
+"email": "*email new*",
+"password": "334498334498334498qq",
+"password_confirm": "334498334498334498qq"
+}</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 201, 'msg': '*params username*'}</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>注册成功_未注册的20位账号_邮箱_20位密码</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>select username from test.auth_user where username=%s;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="6" s="1">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 5*",
+"email": "*email new*",
+"password": "334498sun",
+"password_confirm": "334498sun"
+}</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '仅允许6-20个字符的用户名'}</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_未注册的5位账号_邮箱</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="7" s="1">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 21*",
+"email": "*email new*",
+"password": "334498sun",
+"password_confirm": "334498sun"
+}</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '仅允许6-20个字符的用户名'}</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_未注册的21位账号_邮箱</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="8" s="1">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username exist*",
+"email": "*email new*",
+"password": "334498sun",
+"password_confirm": "334498sun"
+}</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '已存在一位使用该名字的用户。'}</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_已注册账号_邮箱</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="9" s="1">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>{
+"email": "*email new*",
+"password": "334498sun",
+"password_confirm": "334498sun"
+}</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段是必填项'}</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_账号为空</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="10" s="1">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 6*",
+"email": "*email exist*",
+"password": "334498sun",
+"password_confirm": "334498sun"
+}</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '此邮箱已注册'}</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_账号_已注册邮箱</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="11" s="1">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 6*",
+"email": "641210592qq.com",
+"password": "334498sun",
+"password_confirm": "334498sun"
+}</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '请输入合法的邮件地址。'}</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_账号_不合法邮箱</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="12" s="1">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 6*",
+"email": "@qq.com",
+"password": "334498sun",
+"password_confirm": "334498sun"
+}</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '请输入合法的邮件地址。'}</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_账号_不合法邮箱</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="13" s="1">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 20*",
+"password": "334498sun",
+"password_confirm": "334498sun"
+}</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段是必填项'}</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_邮箱为空</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="14" s="1">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 6*",
+"email": "*email new*",
+"password": "33449",
+"password_confirm": "33449"
+}</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '仅允许6-20个字符的密码'}</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_5位密码</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="15" s="1">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 6*",
+"email": "*email new*",
+"password": "334498334498334498555",
+"password_confirm": "334498334498334498555"
+}</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '仅允许6-20个字符的密码'}</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_21位密码</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="16" s="1">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 20*",
+"email": "*email new*",
+"password_confirm": "334498sun"
+}</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段是必填项'}</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_密码为空</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="17" s="1">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 6*",
+"email": "*email new*",
+"password": "334498sun",
+"password_confirm": "334498sss"
+}</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '两次输入密码不正确'}</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_21位密码</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="18" s="1">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>{
+"username": "*username new 20*",
+"email": "*email new*",
+"password": "334498sun"
+}</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段是必填项'}</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>注册失败_确认密码为空</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/testdata/test_data.xlsx
+++ b/testdata/test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="2" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12990" windowWidth="28785"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12990" windowWidth="28785"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" state="visible" r:id="rId1"/>
@@ -65,22 +65,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -94,53 +86,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -149,14 +96,6 @@
       <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,7 +110,52 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -184,10 +168,26 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,7 +200,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,13 +224,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,7 +254,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,37 +290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,13 +314,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,19 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,37 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,13 +394,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,9 +435,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,26 +453,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,17 +477,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,10 +499,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="21" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -511,16 +511,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
@@ -532,112 +532,112 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="10" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="32" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="20" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="13" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="20" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="13" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="23" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="9" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2055,16 +2055,17 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="8.125"/>
     <col customWidth="1" max="2" min="2" style="1" width="41.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="40.75"/>
-    <col customWidth="1" max="5" min="4" style="1" width="23.5"/>
+    <col customWidth="1" max="3" min="3" style="1" width="82.875"/>
+    <col customWidth="1" max="4" min="4" style="1" width="23.5"/>
+    <col customWidth="1" max="5" min="5" style="1" width="26.5"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="14.25" r="1" s="1">
@@ -2099,21 +2100,21 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="2" s="1">
+    <row customHeight="1" ht="81" r="2" s="1">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
           <t>{
-    "mobile_phone": *mobile_phone exist,
-    "pwd": "334498sun"
+"username": "*username unadmin*",
+"password": "334498sun"
 }</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': 'OK'}</t>
+          <t>{'Status': 200, 'msg': '*params username*'}</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -2123,25 +2124,26 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>登录成功</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="3" s="1">
+          <t>登录成功_已注册的账号</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="3" s="1">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
           <t>{
-    "mobile_phone":  *mobile_phone new,
-    "pwd": "334498ss"
+"username": "*username new 6*",
+"password": "334498sun"
 }</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>{'code': 1001, 'msg': '账号信息错误'}</t>
+          <t>{'Status': 400, 'msg': '无法使用提供的认证信息登录'}</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -2154,22 +2156,22 @@
           <t>登录失败_未注册的账号</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="54" r="4" s="1">
+      <c r="F3" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="4" s="1">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
           <t>{
-    "mobile_phone":  *mobile_phone exist,
-    "pwd": "124498ss"
+"password": "334498sun"
 }</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>{'code': 1001, 'msg': '账号信息错误'}</t>
+          <t>{'Status': 400, 'msg': '该字段是必填项'}</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -2179,26 +2181,26 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>登录失败_错误的密码</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="5" s="1">
+          <t>登录失败_账号为空</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="5" s="1">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
           <t>{
-    "mobile_phone":  *mobile_phone exist,
-    "pwd": "334498ss",
-    "type": "1"
+"username": "*username unadmin*",
+"password": "334498sss"
 }</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>{'code': 1001, 'msg': '账号信息错误'}</t>
+          <t>{'Status': 400, 'msg': '无法使用提供的认证信息登录'}</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -2208,27 +2210,25 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>登录失败_多余的参数</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="6" s="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>登录失败_密码错误</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="6" s="1">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
           <t>{
-    "pwd": "334498ss",
-    "type": "1"
+"username": "*username unadmin*"
 }</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>{'code': 1, 'msg': '手机号码为空'}</t>
+          <t>{'Status': 400, 'msg': '该字段是必填项'}</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -2238,38 +2238,40 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>登录失败_账号为空</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="7" s="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>登录失败_密码为空</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="7" s="1">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
           <t>{
-    "mobile_phone":  *mobile_phone exist
+"username": "*username unadmin*",
+"password": "334498sun",
+"type": "1"
 }</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>{'code': 1, 'msg': '密码为空'}</t>
+          <t>{'Status': 200, 'msg': '参数多余'}</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>登录失败_密码</t>
-        </is>
-      </c>
+          <t>登录失败_参数多余</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2285,8 +2287,8 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/testdata/test_data.xlsx
+++ b/testdata/test_data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="28785"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12990" windowWidth="28785"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="register" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="projects" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="interfaces" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -52,21 +52,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -87,16 +74,33 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,9 +113,37 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -127,31 +159,15 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,22 +175,6 @@
       <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -187,19 +187,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,13 +211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +229,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,127 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,65 +378,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,7 +400,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,6 +419,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -486,10 +486,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -498,16 +498,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
@@ -519,112 +519,112 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="32" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="20" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="20" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="19" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="10" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2302,8 +2302,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3322,7 +3322,7 @@
 "leader": "孙忘",
 "tester": "孙忘",
 "programmer": "孙忘",
-"publish_app": "孙忘",
+"publish_app": "孙忘"
 }</t>
         </is>
       </c>
@@ -3390,14 +3390,651 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="3.375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="39.75"/>
+    <col customWidth="1" max="3" min="3" style="1" width="64"/>
+    <col customWidth="1" max="4" min="4" style="1" width="5.125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="28.75"/>
+    <col customWidth="1" max="6" min="6" style="1" width="56"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="14.25" r="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>expect</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>res</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>sql_cheack</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="2" s="1">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 1 en*",
+"tester": "孙忘",
+"project_id": "*projects id exist*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 201, 'msg': '*params name*'}</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_成功_名称长度1</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>SELECT name FROM test.tb_interfaces WHERE name = %s;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="3" s="1">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 200 ec*",
+"tester": "孙忘",
+"project_id": "*projects id exist*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 201, 'msg': '*params name*'}</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_成功_名称长度200</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>SELECT name FROM test.tb_interfaces WHERE name = %s;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="4" s="1">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "",
+"tester": "孙忘",
+"project_id": "*projects id exist*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段不能为空'}</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_错误_名称长度0</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="5" s="1">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 201 ec*",
+"tester": "孙忘",
+"project_id": "*projects id exist*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '请确保这个字段不能超过 200 个字符'}</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_错误_名称长度201</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="6" s="1">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname exist*",
+"tester": "孙忘",
+"project_id": "*projects id exist*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '具有 接口名称 的 接口信息 已存在'}</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_错误_名称重复</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="7" s="1">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": 4567560564,
+"tester": "孙忘",
+"project_id": "*projects id exist*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '参数错误'}</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_错误_名称类型</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="8" s="1">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>{
+"tester": "孙忘",
+"project_id": "*projects id exist*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段是必填项'}</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_错误_名称不填</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="9" s="1">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"tester": "*name str 50 ec*",
+"project_id": "*projects id exist*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 201, 'msg': '*params name*'}</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_成功_测试人员长度50</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>SELECT name FROM test.tb_interfaces WHERE name = %s;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="10" s="1">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"tester": "",
+"project_id": "*projects id exist*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段不能为空'}</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_错误_测试人员长度0</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="11" s="1">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"tester": "*name str 51 ec*",
+"project_id": "*projects id exist*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '请确保这个字段不能超过 50 个字符'}</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_错误_测试人员长度51</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="12" s="1">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"tester": 4680134403846,
+"project_id": "*projects id exist*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '参数错误'}</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_错误_测试人员类型</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="13" s="1">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"project_id": "*projects id exist*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段是必填项'}</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_错误_测试人员不填</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="14" s="1">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"tester": "*name str 10 ec*",
+"project_id": "*projects id new*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '无效主键'}</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_错误_所属项目id不存在</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="15" s="1">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"tester": "*name str 10 ec*",
+"project_id": "",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段不能为 null'}</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_错误_所属项目id为空</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="16" s="1">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"tester": "*name str 10 ec*",
+"desc": "时序自动化"
+}</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段是必填项'}</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>创建接口_错误_所属项目id不填</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="17" s="1">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"tester": "*name str 10 ec*",
+"project_id": "*projects id exist*",
+"desc": "*name str 200 ec*"
+}</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 201, 'msg': '*params name*'}</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>创建项目_成功_简要描述长度200</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>SELECT name FROM test.tb_interfaces WHERE name = %s;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="18" s="1">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"tester": "*name str 10 ec*",
+"project_id": "*projects id exist*",
+"desc": ""
+}</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 201, 'msg': '*params name*'}</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>创建项目_成功_简要描述长度0</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>SELECT name FROM test.tb_interfaces WHERE name = %s;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="94.5" r="19" s="1">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"tester": "*name str 10 ec*",
+"project_id": "*projects id exist*"
+}</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 201, 'msg': '*params name*'}</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>创建项目_成功_简要描述长度为空</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>SELECT name FROM test.tb_interfaces WHERE name = %s;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="20" s="1">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"tester": "*name str 10 ec*",
+"project_id": "*projects id exist*",
+"desc": "*name str 201 ec*"
+}</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '请确保这个字段不能超过 200 个字符'}</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>创建项目_失败_简要描述长度201</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/testdata/test_data.xlsx
+++ b/testdata/test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12990" windowWidth="28785"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="28785"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,7 @@
     <sheet name="register" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="projects" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="interfaces" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="testcases" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -52,8 +53,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -74,6 +82,35 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -83,7 +120,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -106,60 +151,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +166,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -187,7 +188,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,73 +290,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,25 +326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,61 +344,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,6 +379,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -396,11 +421,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,36 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -486,145 +487,145 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="18" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="12" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="12" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="5" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="10" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="30" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1879,7 +1880,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -2064,7 +2065,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -3392,8 +3393,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3445,7 +3446,7 @@
       <c r="B2" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 1 en*",
+"name": "*tiname new 1 en*",
 "tester": "孙忘",
 "project_id": "*projects id exist*",
 "desc": "时序自动化"
@@ -3480,7 +3481,7 @@
       <c r="B3" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 200 ec*",
+"name": "*tiname new 200 ec*",
 "tester": "孙忘",
 "project_id": "*projects id exist*",
 "desc": "时序自动化"
@@ -3545,7 +3546,7 @@
       <c r="B5" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 201 ec*",
+"name": "*tiname new 201 ec*",
 "tester": "孙忘",
 "project_id": "*projects id exist*",
 "desc": "时序自动化"
@@ -3575,7 +3576,7 @@
       <c r="B6" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname exist*",
+"name": "*tiname exist*",
 "tester": "孙忘",
 "project_id": "*projects id exist*",
 "desc": "时序自动化"
@@ -3664,7 +3665,7 @@
       <c r="B9" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 10 ec*",
+"name": "*tiname new 10 ec*",
 "tester": "*name str 50 ec*",
 "project_id": "*projects id exist*",
 "desc": "时序自动化"
@@ -3699,7 +3700,7 @@
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 10 ec*",
+"name": "*tiname new 10 ec*",
 "tester": "",
 "project_id": "*projects id exist*",
 "desc": "时序自动化"
@@ -3729,7 +3730,7 @@
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 10 ec*",
+"name": "*tiname new 10 ec*",
 "tester": "*name str 51 ec*",
 "project_id": "*projects id exist*",
 "desc": "时序自动化"
@@ -3759,7 +3760,7 @@
       <c r="B12" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 10 ec*",
+"name": "*tiname new 10 ec*",
 "tester": 4680134403846,
 "project_id": "*projects id exist*",
 "desc": "时序自动化"
@@ -3789,7 +3790,7 @@
       <c r="B13" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 10 ec*",
+"name": "*tiname new 10 ec*",
 "project_id": "*projects id exist*",
 "desc": "时序自动化"
 }</t>
@@ -3818,7 +3819,7 @@
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 10 ec*",
+"name": "*tiname new 10 ec*",
 "tester": "*name str 10 ec*",
 "project_id": "*projects id new*",
 "desc": "时序自动化"
@@ -3848,7 +3849,7 @@
       <c r="B15" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 10 ec*",
+"name": "*tiname new 10 ec*",
 "tester": "*name str 10 ec*",
 "project_id": "",
 "desc": "时序自动化"
@@ -3878,7 +3879,7 @@
       <c r="B16" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 10 ec*",
+"name": "*tiname new 10 ec*",
 "tester": "*name str 10 ec*",
 "desc": "时序自动化"
 }</t>
@@ -3907,7 +3908,7 @@
       <c r="B17" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 10 ec*",
+"name": "*tiname new 10 ec*",
 "tester": "*name str 10 ec*",
 "project_id": "*projects id exist*",
 "desc": "*name str 200 ec*"
@@ -3942,7 +3943,7 @@
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 10 ec*",
+"name": "*tiname new 10 ec*",
 "tester": "*name str 10 ec*",
 "project_id": "*projects id exist*",
 "desc": ""
@@ -3977,7 +3978,7 @@
       <c r="B19" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 10 ec*",
+"name": "*tiname new 10 ec*",
 "tester": "*name str 10 ec*",
 "project_id": "*projects id exist*"
 }</t>
@@ -4011,7 +4012,7 @@
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "*tcname new 10 ec*",
+"name": "*tiname new 10 ec*",
 "tester": "*name str 10 ec*",
 "project_id": "*projects id exist*",
 "desc": "*name str 201 ec*"
@@ -4033,6 +4034,489 @@
           <t>创建项目_失败_简要描述长度201</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="3.375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="77.375"/>
+    <col customWidth="1" max="3" min="3" style="1" width="43.75"/>
+    <col customWidth="1" max="4" min="4" style="1" width="5.125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="24.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="58.25"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="14.25" r="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>expect</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>res</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>sql_cheack</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="2" s="1">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 1 en*",
+"interface": {"pid": *projects id exist*, "iid" : *interfaces id exist*},
+"author": "孙忘",
+"request": "孙忘"
+}</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 201, 'msg': '*params name*'}</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_成功_名称长度1</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>SELECT name FROM test.tb_testcases WHERE name = %s;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="3" s="1">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 50 ec*",
+"interface": {"pid": *projects id exist*, "iid" : *interfaces id exist*},
+"include": "孙忘",
+"author": "孙忘",
+"request": "孙忘"
+}</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 201, 'msg': '*params name*'}</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_成功_名称长度50</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>SELECT name FROM test.tb_testcases WHERE name = %s;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="4" s="1">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"interface": {"pid": *projects id new*, "iid" : *interfaces id exist*},
+"include": "孙忘",
+"author": "孙忘",
+"request": "孙忘"
+}</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '所选项目不存在'}</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_失败_项目id无效</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="108" r="5" s="1">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"interface": {"pid": *projects id exist*, "iid" : *interfaces id new*},
+"include": "孙忘",
+"author": "孙忘",
+"request": "孙忘"
+}</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '所选接口不存在'}</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_失败_接口id无效</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="108" r="6" s="1">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"interface": "",
+"include": "孙忘",
+"author": "孙忘",
+"request": "孙忘"
+}</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '无效数据。期待为字典类型'}</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_失败_项目和接口为空</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="108" r="7" s="1">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 10 ec*",
+"include": "孙忘",
+"author": "孙忘",
+"request": "孙忘"
+}</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段是必填项'}</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_失败_项目和接口不填</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="108" r="8" s="1">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 50 ec*",
+"interface": {"pid": *projects id exist*, "iid" : *interfaces id exist*},
+"include": "",
+"author": "孙忘",
+"request": "孙忘"
+}</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段不能为空'}</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_失败_前置为空</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="108" r="9" s="1">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 50 ec*",
+"interface": {"pid": *projects id exist*, "iid" : *interfaces id exist*},
+"include": "孙忘",
+"author": "*name str 50 ec*",
+"request": "孙忘"
+}</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 201, 'msg': '*params name*'}</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_成功_编写人员长度50</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>SELECT name FROM test.tb_testcases WHERE name = %s;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="108" r="10" s="1">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 50 ec*",
+"interface": {"pid": *projects id exist*, "iid" : *interfaces id exist*},
+"include": "孙忘",
+"author": "*name str 51 ec*",
+"request": "孙忘"
+}</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '请确保这个字段不能超过 50 个字符'}</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_失败_编写人员长度51</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="108" r="11" s="1">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 50 ec*",
+"interface": {"pid": *projects id exist*, "iid" : *interfaces id exist*},
+"include": "孙忘",
+"author": "",
+"request": "孙忘"
+}</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段不能为空'}</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_失败_编写人员长度0</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="108" r="12" s="1">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 50 ec*",
+"interface": {"pid": *projects id exist*, "iid" : *interfaces id exist*},
+"include": "孙忘",
+"request": "孙忘"
+}</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段是必填项'}</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_失败_编写人员不填</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="108" r="13" s="1">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 50 ec*",
+"interface": {"pid": *projects id exist*, "iid" : *interfaces id exist*},
+"include": "孙忘",
+"author": "孙忘",
+"request": ""
+}</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段不能为空'}</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_失败_请求信息为空</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="108" r="14" s="1">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>{
+"name": "*tcname new 50 ec*",
+"interface": {"pid": *projects id exist*, "iid" : *interfaces id exist*},
+"include": "孙忘",
+"author": "孙忘"
+}</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>{'Status': 400, 'msg': '该字段是必填项'}</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>创建用例_失败_请求信息不填</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
